--- a/Experiment Log_env tracking.xlsx
+++ b/Experiment Log_env tracking.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D0A67B-6ADA-BE4D-9163-D69492D9B02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta test 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="282">
   <si>
     <t xml:space="preserve">EXPERIMENT </t>
   </si>
@@ -833,12 +834,48 @@
   </si>
   <si>
     <t>approx ^180</t>
+  </si>
+  <si>
+    <t>approx 148</t>
+  </si>
+  <si>
+    <t>all the bats made visits</t>
+  </si>
+  <si>
+    <t>Many doors were clogged with honey and took a long time to clean, resulting in a delay in starting</t>
+  </si>
+  <si>
+    <t>approx 192</t>
+  </si>
+  <si>
+    <t>350 approx</t>
+  </si>
+  <si>
+    <t>alcohol cleaning not done as the experiment is ending tomorrow and alcohol cleaning needs to be done after that anyway. Postponed to tomorrow</t>
+  </si>
+  <si>
+    <t>69 (male) - 9.78</t>
+  </si>
+  <si>
+    <t>43 (female) - 9.85</t>
+  </si>
+  <si>
+    <t>92 (female) - 9.43</t>
+  </si>
+  <si>
+    <t>66 (female) - 7.93</t>
+  </si>
+  <si>
+    <t>47 (male) - 8.54</t>
+  </si>
+  <si>
+    <t>19 (male) - 9.97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1529,32 +1566,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView topLeftCell="B28" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="20" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="13.7109375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="10" width="19.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.1640625" style="2"/>
+    <col min="12" max="12" width="13.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="32" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1615,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:26" s="7" customFormat="1" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="7" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="5" t="s">
@@ -1630,7 +1667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>17</v>
@@ -1676,7 +1713,7 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
         <v>18</v>
@@ -1722,7 +1759,7 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
         <v>59</v>
@@ -1768,7 +1805,7 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="61" t="s">
         <v>19</v>
       </c>
@@ -1816,7 +1853,7 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="61"/>
       <c r="B7" s="19" t="s">
         <v>21</v>
@@ -1862,7 +1899,7 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
     </row>
-    <row r="8" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="61"/>
       <c r="B8" s="19" t="s">
         <v>22</v>
@@ -1908,7 +1945,7 @@
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
     </row>
-    <row r="9" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="61"/>
       <c r="B9" s="19" t="s">
         <v>23</v>
@@ -1954,7 +1991,7 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="61"/>
       <c r="B10" s="19" t="s">
         <v>24</v>
@@ -2000,7 +2037,7 @@
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="61"/>
       <c r="B11" s="19" t="s">
         <v>25</v>
@@ -2046,7 +2083,7 @@
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
     </row>
-    <row r="12" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="35"/>
       <c r="B12" s="20" t="s">
         <v>83</v>
@@ -2092,7 +2129,7 @@
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
-    <row r="13" spans="1:26" s="18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="20" t="s">
         <v>26</v>
@@ -2134,7 +2171,7 @@
       <c r="Y13" s="17"/>
       <c r="Z13" s="17"/>
     </row>
-    <row r="14" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="13"/>
       <c r="B14" s="20" t="s">
         <v>27</v>
@@ -2176,7 +2213,7 @@
       <c r="Y14" s="17"/>
       <c r="Z14" s="17"/>
     </row>
-    <row r="15" spans="1:26" s="18" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.15">
       <c r="A15" s="13"/>
       <c r="B15" s="20" t="s">
         <v>28</v>
@@ -2218,7 +2255,7 @@
       <c r="Y15" s="17"/>
       <c r="Z15" s="17"/>
     </row>
-    <row r="16" spans="1:26" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" s="18" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="20" t="s">
         <v>29</v>
@@ -2260,7 +2297,7 @@
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
     </row>
-    <row r="17" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="13"/>
       <c r="B17" s="21" t="s">
         <v>30</v>
@@ -2306,7 +2343,7 @@
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
     </row>
-    <row r="18" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="13"/>
       <c r="B18" s="21" t="s">
         <v>31</v>
@@ -2352,7 +2389,7 @@
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
     </row>
-    <row r="19" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="61" t="s">
         <v>32</v>
       </c>
@@ -2398,7 +2435,7 @@
       <c r="Y19" s="17"/>
       <c r="Z19" s="17"/>
     </row>
-    <row r="20" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="61"/>
       <c r="B20" s="22" t="s">
         <v>21</v>
@@ -2442,7 +2479,7 @@
       <c r="Y20" s="17"/>
       <c r="Z20" s="17"/>
     </row>
-    <row r="21" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="61"/>
       <c r="B21" s="22" t="s">
         <v>22</v>
@@ -2486,7 +2523,7 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="61"/>
       <c r="B22" s="22" t="s">
         <v>23</v>
@@ -2530,7 +2567,7 @@
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
     </row>
-    <row r="23" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="61"/>
       <c r="B23" s="22" t="s">
         <v>24</v>
@@ -2574,7 +2611,7 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
     </row>
-    <row r="24" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="61"/>
       <c r="B24" s="22" t="s">
         <v>25</v>
@@ -2618,7 +2655,7 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
     </row>
-    <row r="25" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="61" t="s">
         <v>33</v>
       </c>
@@ -2664,7 +2701,7 @@
       <c r="Y25" s="17"/>
       <c r="Z25" s="17"/>
     </row>
-    <row r="26" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="61"/>
       <c r="B26" s="22" t="s">
         <v>21</v>
@@ -2708,7 +2745,7 @@
       <c r="Y26" s="17"/>
       <c r="Z26" s="17"/>
     </row>
-    <row r="27" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="61"/>
       <c r="B27" s="22" t="s">
         <v>22</v>
@@ -2752,7 +2789,7 @@
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
     </row>
-    <row r="28" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="61"/>
       <c r="B28" s="22" t="s">
         <v>23</v>
@@ -2796,7 +2833,7 @@
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
     </row>
-    <row r="29" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="61"/>
       <c r="B29" s="22" t="s">
         <v>24</v>
@@ -2840,7 +2877,7 @@
       <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
     </row>
-    <row r="30" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="61"/>
       <c r="B30" s="22" t="s">
         <v>25</v>
@@ -2884,7 +2921,7 @@
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
     </row>
-    <row r="31" spans="1:26" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" s="18" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="61" t="s">
         <v>34</v>
       </c>
@@ -2916,7 +2953,7 @@
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
     </row>
-    <row r="32" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="61"/>
       <c r="B32" s="23" t="s">
         <v>21</v>
@@ -2946,7 +2983,7 @@
       <c r="Y32" s="17"/>
       <c r="Z32" s="17"/>
     </row>
-    <row r="33" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="61"/>
       <c r="B33" s="23" t="s">
         <v>22</v>
@@ -2976,7 +3013,7 @@
       <c r="Y33" s="17"/>
       <c r="Z33" s="17"/>
     </row>
-    <row r="34" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="61"/>
       <c r="B34" s="23" t="s">
         <v>23</v>
@@ -3006,7 +3043,7 @@
       <c r="Y34" s="17"/>
       <c r="Z34" s="17"/>
     </row>
-    <row r="35" spans="1:26" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" s="18" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="61"/>
       <c r="B35" s="23" t="s">
         <v>24</v>
@@ -3036,7 +3073,7 @@
       <c r="Y35" s="17"/>
       <c r="Z35" s="17"/>
     </row>
-    <row r="36" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="61"/>
       <c r="B36" s="23" t="s">
         <v>25</v>
@@ -3066,7 +3103,7 @@
       <c r="Y36" s="17"/>
       <c r="Z36" s="17"/>
     </row>
-    <row r="37" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="61" t="s">
         <v>35</v>
       </c>
@@ -3102,7 +3139,7 @@
       <c r="Y37" s="17"/>
       <c r="Z37" s="17"/>
     </row>
-    <row r="38" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="61"/>
       <c r="B38" s="23" t="s">
         <v>21</v>
@@ -3136,7 +3173,7 @@
       <c r="Y38" s="17"/>
       <c r="Z38" s="17"/>
     </row>
-    <row r="39" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="61"/>
       <c r="B39" s="23" t="s">
         <v>22</v>
@@ -3170,7 +3207,7 @@
       <c r="Y39" s="17"/>
       <c r="Z39" s="17"/>
     </row>
-    <row r="40" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="61"/>
       <c r="B40" s="23" t="s">
         <v>23</v>
@@ -3204,7 +3241,7 @@
       <c r="Y40" s="17"/>
       <c r="Z40" s="17"/>
     </row>
-    <row r="41" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="61"/>
       <c r="B41" s="23" t="s">
         <v>24</v>
@@ -3238,7 +3275,7 @@
       <c r="Y41" s="17"/>
       <c r="Z41" s="17"/>
     </row>
-    <row r="42" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="61"/>
       <c r="B42" s="23" t="s">
         <v>25</v>
@@ -3272,7 +3309,7 @@
       <c r="Y42" s="17"/>
       <c r="Z42" s="17"/>
     </row>
-    <row r="43" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="13"/>
       <c r="B43" s="26" t="s">
         <v>36</v>
@@ -3318,7 +3355,7 @@
       <c r="Y43" s="17"/>
       <c r="Z43" s="17"/>
     </row>
-    <row r="44" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="13"/>
       <c r="B44" s="27" t="s">
         <v>37</v>
@@ -3360,7 +3397,7 @@
       <c r="Y44" s="17"/>
       <c r="Z44" s="17"/>
     </row>
-    <row r="45" spans="1:26" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="13"/>
       <c r="B45" s="27" t="s">
         <v>38</v>
@@ -3398,7 +3435,7 @@
       <c r="Y45" s="17"/>
       <c r="Z45" s="17"/>
     </row>
-    <row r="46" spans="1:26" s="18" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" s="18" customFormat="1" ht="180" x14ac:dyDescent="0.15">
       <c r="A46" s="13"/>
       <c r="B46" s="29" t="s">
         <v>39</v>
@@ -3432,7 +3469,7 @@
       <c r="Y46" s="17"/>
       <c r="Z46" s="17"/>
     </row>
-    <row r="47" spans="1:26" s="32" customFormat="1" ht="189.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="32" customFormat="1" ht="189.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="30"/>
       <c r="B47" s="31" t="s">
         <v>40</v>
@@ -3466,35 +3503,35 @@
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
     </row>
-    <row r="48" spans="1:26" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="A48" s="32"/>
       <c r="B48" s="33"/>
     </row>
-    <row r="49" spans="2:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="B49" s="33"/>
     </row>
-    <row r="50" spans="2:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="B50" s="33"/>
     </row>
-    <row r="51" spans="2:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="B51" s="33"/>
     </row>
-    <row r="52" spans="2:2" s="18" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.15">
       <c r="B52" s="33"/>
     </row>
-    <row r="53" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="34"/>
     </row>
-    <row r="54" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="34"/>
     </row>
-    <row r="55" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="2:2" s="18" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A6:A11"/>
@@ -3509,32 +3546,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="44" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" customWidth="1"/>
+    <col min="11" max="11" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.5" style="44" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="47" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -3558,7 +3595,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5" t="s">
@@ -3610,7 +3647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>17</v>
@@ -3656,7 +3693,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
         <v>18</v>
@@ -3702,7 +3739,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
         <v>59</v>
@@ -3748,7 +3785,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
         <v>19</v>
       </c>
@@ -3796,7 +3833,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="61"/>
       <c r="B7" s="19" t="s">
         <v>21</v>
@@ -3842,7 +3879,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="61"/>
       <c r="B8" s="19" t="s">
         <v>22</v>
@@ -3888,7 +3925,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" s="61"/>
       <c r="B9" s="19" t="s">
         <v>23</v>
@@ -3934,7 +3971,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="61"/>
       <c r="B10" s="19" t="s">
         <v>24</v>
@@ -3980,7 +4017,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="61"/>
       <c r="B11" s="19" t="s">
         <v>25</v>
@@ -4026,7 +4063,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="20" t="s">
         <v>83</v>
@@ -4070,7 +4107,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="20" t="s">
         <v>26</v>
@@ -4106,7 +4143,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="20" t="s">
         <v>27</v>
@@ -4148,7 +4185,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="20" t="s">
         <v>28</v>
@@ -4182,7 +4219,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
     </row>
-    <row r="16" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="20" t="s">
         <v>29</v>
@@ -4224,7 +4261,7 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
     </row>
-    <row r="17" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="21" t="s">
         <v>30</v>
@@ -4270,7 +4307,7 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="21" t="s">
         <v>31</v>
@@ -4316,7 +4353,7 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
         <v>32</v>
       </c>
@@ -4362,7 +4399,7 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="61"/>
       <c r="B20" s="22" t="s">
         <v>21</v>
@@ -4406,7 +4443,7 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="61"/>
       <c r="B21" s="22" t="s">
         <v>22</v>
@@ -4450,7 +4487,7 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="61"/>
       <c r="B22" s="22" t="s">
         <v>23</v>
@@ -4494,7 +4531,7 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="61"/>
       <c r="B23" s="22" t="s">
         <v>24</v>
@@ -4538,7 +4575,7 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="61"/>
       <c r="B24" s="22" t="s">
         <v>25</v>
@@ -4582,7 +4619,7 @@
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="61" t="s">
         <v>33</v>
       </c>
@@ -4628,7 +4665,7 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="22" t="s">
         <v>21</v>
@@ -4672,7 +4709,7 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
       <c r="B27" s="22" t="s">
         <v>22</v>
@@ -4716,7 +4753,7 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
       <c r="B28" s="22" t="s">
         <v>23</v>
@@ -4760,7 +4797,7 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="22" t="s">
         <v>24</v>
@@ -4804,7 +4841,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
       <c r="B30" s="22" t="s">
         <v>25</v>
@@ -4848,7 +4885,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="61" t="s">
         <v>34</v>
       </c>
@@ -4872,7 +4909,7 @@
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="61"/>
       <c r="B32" s="23" t="s">
         <v>21</v>
@@ -4894,7 +4931,7 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="23" t="s">
         <v>22</v>
@@ -4916,7 +4953,7 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="23" t="s">
         <v>23</v>
@@ -4940,7 +4977,7 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="23" t="s">
         <v>24</v>
@@ -4962,7 +4999,7 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="61"/>
       <c r="B36" s="23" t="s">
         <v>25</v>
@@ -4984,7 +5021,7 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="61" t="s">
         <v>35</v>
       </c>
@@ -5010,7 +5047,7 @@
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="23" t="s">
         <v>21</v>
@@ -5034,7 +5071,7 @@
       <c r="Q38" s="17"/>
       <c r="R38" s="17"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="23" t="s">
         <v>22</v>
@@ -5058,7 +5095,7 @@
       <c r="Q39" s="17"/>
       <c r="R39" s="17"/>
     </row>
-    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="23" t="s">
         <v>23</v>
@@ -5084,7 +5121,7 @@
       <c r="Q40" s="17"/>
       <c r="R40" s="17"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="61"/>
       <c r="B41" s="23" t="s">
         <v>24</v>
@@ -5108,7 +5145,7 @@
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="61"/>
       <c r="B42" s="23" t="s">
         <v>25</v>
@@ -5132,7 +5169,7 @@
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="26" t="s">
         <v>36</v>
@@ -5178,7 +5215,7 @@
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="27" t="s">
         <v>37</v>
@@ -5220,7 +5257,7 @@
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="27" t="s">
         <v>38</v>
@@ -5242,7 +5279,7 @@
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
     </row>
-    <row r="46" spans="1:18" s="40" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="40" customFormat="1" ht="196" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="29" t="s">
         <v>39</v>
@@ -5270,7 +5307,7 @@
       <c r="Q46" s="16"/>
       <c r="R46" s="16"/>
     </row>
-    <row r="47" spans="1:18" ht="405.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="358" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="31" t="s">
         <v>40</v>
@@ -5312,25 +5349,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="47" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -5354,7 +5391,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="5" t="s">
@@ -5406,7 +5443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
         <v>17</v>
@@ -5438,7 +5475,7 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="14" t="s">
         <v>18</v>
@@ -5470,7 +5507,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="14" t="s">
         <v>59</v>
@@ -5502,7 +5539,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
         <v>19</v>
       </c>
@@ -5536,7 +5573,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="61"/>
       <c r="B7" s="19" t="s">
         <v>21</v>
@@ -5568,7 +5605,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="61"/>
       <c r="B8" s="19" t="s">
         <v>22</v>
@@ -5600,7 +5637,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="61"/>
       <c r="B9" s="19" t="s">
         <v>23</v>
@@ -5632,7 +5669,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="61"/>
       <c r="B10" s="19" t="s">
         <v>24</v>
@@ -5664,7 +5701,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="61"/>
       <c r="B11" s="19" t="s">
         <v>25</v>
@@ -5696,7 +5733,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="B12" s="20" t="s">
         <v>83</v>
@@ -5726,7 +5763,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="20" t="s">
         <v>26</v>
@@ -5756,7 +5793,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="20" t="s">
         <v>27</v>
@@ -5786,7 +5823,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18" ht="57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="13"/>
       <c r="B15" s="20" t="s">
         <v>28</v>
@@ -5816,7 +5853,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
     </row>
-    <row r="16" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="20" t="s">
         <v>29</v>
@@ -5846,7 +5883,7 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
     </row>
-    <row r="17" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="13"/>
       <c r="B17" s="21" t="s">
         <v>30</v>
@@ -5878,7 +5915,7 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="21" t="s">
         <v>31</v>
@@ -5910,7 +5947,7 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
         <v>32</v>
       </c>
@@ -5942,7 +5979,7 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="61"/>
       <c r="B20" s="22" t="s">
         <v>21</v>
@@ -5972,7 +6009,7 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="61"/>
       <c r="B21" s="22" t="s">
         <v>22</v>
@@ -6002,7 +6039,7 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="61"/>
       <c r="B22" s="22" t="s">
         <v>23</v>
@@ -6032,7 +6069,7 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="61"/>
       <c r="B23" s="22" t="s">
         <v>24</v>
@@ -6062,7 +6099,7 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="61"/>
       <c r="B24" s="22" t="s">
         <v>25</v>
@@ -6092,7 +6129,7 @@
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="61" t="s">
         <v>33</v>
       </c>
@@ -6124,7 +6161,7 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="22" t="s">
         <v>21</v>
@@ -6154,7 +6191,7 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
       <c r="B27" s="22" t="s">
         <v>22</v>
@@ -6184,7 +6221,7 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
       <c r="B28" s="22" t="s">
         <v>23</v>
@@ -6214,7 +6251,7 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="22" t="s">
         <v>24</v>
@@ -6244,7 +6281,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
       <c r="B30" s="22" t="s">
         <v>25</v>
@@ -6274,7 +6311,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="61" t="s">
         <v>34</v>
       </c>
@@ -6300,7 +6337,7 @@
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="61"/>
       <c r="B32" s="23" t="s">
         <v>21</v>
@@ -6324,7 +6361,7 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="23" t="s">
         <v>22</v>
@@ -6348,7 +6385,7 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="23" t="s">
         <v>23</v>
@@ -6372,7 +6409,7 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="16"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="23" t="s">
         <v>24</v>
@@ -6396,7 +6433,7 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="61"/>
       <c r="B36" s="23" t="s">
         <v>25</v>
@@ -6420,7 +6457,7 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="61" t="s">
         <v>35</v>
       </c>
@@ -6446,7 +6483,7 @@
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
     </row>
-    <row r="38" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="23" t="s">
         <v>21</v>
@@ -6470,7 +6507,7 @@
       <c r="Q38" s="17"/>
       <c r="R38" s="17"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="23" t="s">
         <v>22</v>
@@ -6494,7 +6531,7 @@
       <c r="Q39" s="17"/>
       <c r="R39" s="17"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="23" t="s">
         <v>23</v>
@@ -6518,7 +6555,7 @@
       <c r="Q40" s="17"/>
       <c r="R40" s="17"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="61"/>
       <c r="B41" s="23" t="s">
         <v>24</v>
@@ -6542,7 +6579,7 @@
       <c r="Q41" s="17"/>
       <c r="R41" s="17"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="61"/>
       <c r="B42" s="23" t="s">
         <v>25</v>
@@ -6566,7 +6603,7 @@
       <c r="Q42" s="17"/>
       <c r="R42" s="17"/>
     </row>
-    <row r="43" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="26" t="s">
         <v>36</v>
@@ -6598,7 +6635,7 @@
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
     </row>
-    <row r="44" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="13"/>
       <c r="B44" s="27" t="s">
         <v>37</v>
@@ -6626,7 +6663,7 @@
       <c r="Q44" s="17"/>
       <c r="R44" s="17"/>
     </row>
-    <row r="45" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="13"/>
       <c r="B45" s="27" t="s">
         <v>38</v>
@@ -6648,7 +6685,7 @@
       <c r="Q45" s="17"/>
       <c r="R45" s="17"/>
     </row>
-    <row r="46" spans="1:18" ht="225" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="211" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="29" t="s">
         <v>39</v>
@@ -6672,7 +6709,7 @@
       <c r="Q46" s="17"/>
       <c r="R46" s="17"/>
     </row>
-    <row r="47" spans="1:18" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="31" t="s">
         <v>40</v>
@@ -6713,53 +6750,53 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AO47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="40" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="12.85546875" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="56" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" customWidth="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" customWidth="1"/>
-    <col min="24" max="25" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="40" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" style="56" customWidth="1"/>
+    <col min="20" max="20" width="14.6640625" customWidth="1"/>
+    <col min="21" max="21" width="18.5" customWidth="1"/>
+    <col min="22" max="22" width="16.33203125" customWidth="1"/>
+    <col min="23" max="23" width="17.5" customWidth="1"/>
+    <col min="24" max="25" width="18.5" customWidth="1"/>
     <col min="26" max="26" width="16" customWidth="1"/>
-    <col min="27" max="27" width="18.42578125" customWidth="1"/>
+    <col min="27" max="27" width="18.5" customWidth="1"/>
     <col min="28" max="28" width="18" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" customWidth="1"/>
+    <col min="29" max="29" width="14.83203125" customWidth="1"/>
     <col min="30" max="30" width="15" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" customWidth="1"/>
-    <col min="33" max="33" width="13.7109375" customWidth="1"/>
-    <col min="34" max="34" width="18.7109375" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" customWidth="1"/>
+    <col min="31" max="31" width="15.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.5" customWidth="1"/>
+    <col min="33" max="33" width="13.6640625" customWidth="1"/>
+    <col min="34" max="34" width="18.6640625" customWidth="1"/>
+    <col min="35" max="35" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="76.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" ht="62" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -6806,7 +6843,7 @@
       <c r="AN1" s="53"/>
       <c r="AO1" s="53"/>
     </row>
-    <row r="2" spans="1:41" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="5" t="s">
@@ -6927,7 +6964,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -7040,7 +7077,7 @@
       <c r="AN3" s="46"/>
       <c r="AO3" s="46"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
@@ -7153,7 +7190,7 @@
       <c r="AN4" s="54"/>
       <c r="AO4" s="54"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>59</v>
       </c>
@@ -7266,7 +7303,7 @@
       <c r="AN5" s="54"/>
       <c r="AO5" s="54"/>
     </row>
-    <row r="6" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
         <v>19</v>
       </c>
@@ -7379,7 +7416,7 @@
       <c r="AN6" s="15"/>
       <c r="AO6" s="15"/>
     </row>
-    <row r="7" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="61"/>
       <c r="B7" s="19" t="s">
         <v>21</v>
@@ -7490,7 +7527,7 @@
       <c r="AN7" s="15"/>
       <c r="AO7" s="15"/>
     </row>
-    <row r="8" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="61"/>
       <c r="B8" s="19" t="s">
         <v>22</v>
@@ -7601,7 +7638,7 @@
       <c r="AN8" s="15"/>
       <c r="AO8" s="15"/>
     </row>
-    <row r="9" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="61"/>
       <c r="B9" s="19" t="s">
         <v>23</v>
@@ -7712,7 +7749,7 @@
       <c r="AN9" s="15"/>
       <c r="AO9" s="15"/>
     </row>
-    <row r="10" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="61"/>
       <c r="B10" s="19" t="s">
         <v>24</v>
@@ -7823,7 +7860,7 @@
       <c r="AN10" s="15"/>
       <c r="AO10" s="15"/>
     </row>
-    <row r="11" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="61"/>
       <c r="B11" s="19" t="s">
         <v>25</v>
@@ -7934,7 +7971,7 @@
       <c r="AN11" s="15"/>
       <c r="AO11" s="15"/>
     </row>
-    <row r="12" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>83</v>
       </c>
@@ -8045,7 +8082,7 @@
       <c r="AN12" s="16"/>
       <c r="AO12" s="16"/>
     </row>
-    <row r="13" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>26</v>
       </c>
@@ -8154,7 +8191,7 @@
       <c r="AN13" s="53"/>
       <c r="AO13" s="53"/>
     </row>
-    <row r="14" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="31" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>27</v>
       </c>
@@ -8263,7 +8300,7 @@
       <c r="AN14" s="54"/>
       <c r="AO14" s="54"/>
     </row>
-    <row r="15" spans="1:41" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>28</v>
       </c>
@@ -8372,7 +8409,7 @@
       <c r="AN15" s="53"/>
       <c r="AO15" s="53"/>
     </row>
-    <row r="16" spans="1:41" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -8483,7 +8520,7 @@
       <c r="AN16" s="53"/>
       <c r="AO16" s="53"/>
     </row>
-    <row r="17" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>30</v>
       </c>
@@ -8596,7 +8633,7 @@
       <c r="AN17" s="54"/>
       <c r="AO17" s="54"/>
     </row>
-    <row r="18" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>31</v>
       </c>
@@ -8709,7 +8746,7 @@
       <c r="AN18" s="54"/>
       <c r="AO18" s="54"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
         <v>32</v>
       </c>
@@ -8816,7 +8853,7 @@
       <c r="AN19" s="54"/>
       <c r="AO19" s="54"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="61"/>
       <c r="B20" s="22" t="s">
         <v>21</v>
@@ -8921,7 +8958,7 @@
       <c r="AN20" s="54"/>
       <c r="AO20" s="54"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="61"/>
       <c r="B21" s="22" t="s">
         <v>22</v>
@@ -9026,7 +9063,7 @@
       <c r="AN21" s="54"/>
       <c r="AO21" s="54"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="61"/>
       <c r="B22" s="22" t="s">
         <v>23</v>
@@ -9131,7 +9168,7 @@
       <c r="AN22" s="54"/>
       <c r="AO22" s="54"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="61"/>
       <c r="B23" s="22" t="s">
         <v>24</v>
@@ -9236,7 +9273,7 @@
       <c r="AN23" s="54"/>
       <c r="AO23" s="54"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="61"/>
       <c r="B24" s="22" t="s">
         <v>25</v>
@@ -9341,7 +9378,7 @@
       <c r="AN24" s="54"/>
       <c r="AO24" s="54"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="61" t="s">
         <v>33</v>
       </c>
@@ -9450,7 +9487,7 @@
       <c r="AN25" s="54"/>
       <c r="AO25" s="54"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="22" t="s">
         <v>21</v>
@@ -9557,7 +9594,7 @@
       <c r="AN26" s="54"/>
       <c r="AO26" s="54"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
       <c r="B27" s="22" t="s">
         <v>22</v>
@@ -9662,7 +9699,7 @@
       <c r="AN27" s="54"/>
       <c r="AO27" s="54"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
       <c r="B28" s="22" t="s">
         <v>23</v>
@@ -9769,7 +9806,7 @@
       <c r="AN28" s="54"/>
       <c r="AO28" s="54"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="22" t="s">
         <v>24</v>
@@ -9876,7 +9913,7 @@
       <c r="AN29" s="54"/>
       <c r="AO29" s="54"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
       <c r="B30" s="22" t="s">
         <v>25</v>
@@ -9983,7 +10020,7 @@
       <c r="AN30" s="54"/>
       <c r="AO30" s="54"/>
     </row>
-    <row r="31" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="61" t="s">
         <v>34</v>
       </c>
@@ -10038,7 +10075,7 @@
       <c r="AN31" s="53"/>
       <c r="AO31" s="53"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="61"/>
       <c r="B32" s="23" t="s">
         <v>21</v>
@@ -10087,7 +10124,7 @@
       <c r="AN32" s="53"/>
       <c r="AO32" s="53"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="23" t="s">
         <v>22</v>
@@ -10138,7 +10175,7 @@
       <c r="AN33" s="53"/>
       <c r="AO33" s="53"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="23" t="s">
         <v>23</v>
@@ -10187,7 +10224,7 @@
       <c r="AN34" s="53"/>
       <c r="AO34" s="53"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="23" t="s">
         <v>24</v>
@@ -10236,7 +10273,7 @@
       <c r="AN35" s="53"/>
       <c r="AO35" s="53"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" s="61"/>
       <c r="B36" s="23" t="s">
         <v>25</v>
@@ -10285,7 +10322,7 @@
       <c r="AN36" s="53"/>
       <c r="AO36" s="53"/>
     </row>
-    <row r="37" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" ht="31" x14ac:dyDescent="0.2">
       <c r="A37" s="61" t="s">
         <v>35</v>
       </c>
@@ -10340,7 +10377,7 @@
       <c r="AN37" s="53"/>
       <c r="AO37" s="53"/>
     </row>
-    <row r="38" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" ht="31" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="23" t="s">
         <v>21</v>
@@ -10391,7 +10428,7 @@
       <c r="AN38" s="53"/>
       <c r="AO38" s="53"/>
     </row>
-    <row r="39" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" ht="31" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="23" t="s">
         <v>22</v>
@@ -10442,7 +10479,7 @@
       <c r="AN39" s="53"/>
       <c r="AO39" s="53"/>
     </row>
-    <row r="40" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="31" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="23" t="s">
         <v>23</v>
@@ -10493,7 +10530,7 @@
       <c r="AN40" s="53"/>
       <c r="AO40" s="53"/>
     </row>
-    <row r="41" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" ht="31" x14ac:dyDescent="0.2">
       <c r="A41" s="61"/>
       <c r="B41" s="23" t="s">
         <v>24</v>
@@ -10544,7 +10581,7 @@
       <c r="AN41" s="53"/>
       <c r="AO41" s="53"/>
     </row>
-    <row r="42" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" ht="31" x14ac:dyDescent="0.2">
       <c r="A42" s="61"/>
       <c r="B42" s="23" t="s">
         <v>25</v>
@@ -10595,7 +10632,7 @@
       <c r="AN42" s="53"/>
       <c r="AO42" s="53"/>
     </row>
-    <row r="43" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="26" t="s">
         <v>36</v>
       </c>
@@ -10708,7 +10745,7 @@
       <c r="AN43" s="53"/>
       <c r="AO43" s="53"/>
     </row>
-    <row r="44" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>37</v>
       </c>
@@ -10813,7 +10850,7 @@
       <c r="AN44" s="55"/>
       <c r="AO44" s="55"/>
     </row>
-    <row r="45" spans="1:41" ht="150" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" ht="128" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>172</v>
       </c>
@@ -10886,7 +10923,7 @@
       <c r="AN45" s="53"/>
       <c r="AO45" s="53"/>
     </row>
-    <row r="46" spans="1:41" ht="240" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" ht="241" x14ac:dyDescent="0.2">
       <c r="A46" s="29" t="s">
         <v>39</v>
       </c>
@@ -10943,7 +10980,7 @@
       <c r="AN46" s="53"/>
       <c r="AO46" s="53"/>
     </row>
-    <row r="47" spans="1:41" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="344" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>40</v>
       </c>
@@ -11026,47 +11063,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AO1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="topRight" activeCell="AB36" sqref="AB36"/>
+      <selection pane="topRight" activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="9" width="15.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" customWidth="1"/>
-    <col min="18" max="18" width="15.5703125" customWidth="1"/>
-    <col min="19" max="19" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
+    <col min="19" max="19" width="19.5" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" customWidth="1"/>
-    <col min="23" max="23" width="15.5703125" customWidth="1"/>
+    <col min="22" max="22" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="15.5" customWidth="1"/>
     <col min="24" max="24" width="12" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" customWidth="1"/>
+    <col min="26" max="26" width="12.1640625" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" customWidth="1"/>
+    <col min="29" max="29" width="13.83203125" customWidth="1"/>
+    <col min="30" max="30" width="11.6640625" customWidth="1"/>
+    <col min="31" max="31" width="13" customWidth="1"/>
+    <col min="32" max="32" width="12.83203125" customWidth="1"/>
+    <col min="33" max="33" width="12.1640625" customWidth="1"/>
+    <col min="34" max="35" width="12.83203125" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" customWidth="1"/>
+    <col min="37" max="37" width="18.1640625" customWidth="1"/>
+    <col min="38" max="38" width="13.5" customWidth="1"/>
+    <col min="39" max="39" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="76.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" ht="62" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -11113,7 +11160,7 @@
       <c r="AN1" s="53"/>
       <c r="AO1" s="53"/>
     </row>
-    <row r="2" spans="1:41" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="5" t="s">
@@ -11234,7 +11281,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>17</v>
       </c>
@@ -11319,21 +11366,43 @@
       <c r="AB3" s="46">
         <v>44022</v>
       </c>
-      <c r="AC3" s="46"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="46"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
+      <c r="AC3" s="46">
+        <v>44027</v>
+      </c>
+      <c r="AD3" s="46">
+        <v>44028</v>
+      </c>
+      <c r="AE3" s="46">
+        <v>44028</v>
+      </c>
+      <c r="AF3" s="46">
+        <v>44029</v>
+      </c>
+      <c r="AG3" s="46">
+        <v>44030</v>
+      </c>
+      <c r="AH3" s="46">
+        <v>44031</v>
+      </c>
+      <c r="AI3" s="46">
+        <v>44032</v>
+      </c>
+      <c r="AJ3" s="46">
+        <v>44033</v>
+      </c>
+      <c r="AK3" s="46">
+        <v>44034</v>
+      </c>
+      <c r="AL3" s="46">
+        <v>44035</v>
+      </c>
+      <c r="AM3" s="46">
+        <v>44036</v>
+      </c>
       <c r="AN3" s="46"/>
       <c r="AO3" s="46"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>18</v>
       </c>
@@ -11418,21 +11487,43 @@
       <c r="AB4" s="54">
         <v>62</v>
       </c>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
+      <c r="AC4" s="54">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="54">
+        <v>55</v>
+      </c>
+      <c r="AE4" s="54">
+        <v>55</v>
+      </c>
+      <c r="AF4" s="54">
+        <v>54</v>
+      </c>
+      <c r="AG4" s="54">
+        <v>60</v>
+      </c>
+      <c r="AH4" s="54">
+        <v>61</v>
+      </c>
+      <c r="AI4" s="54">
+        <v>61</v>
+      </c>
+      <c r="AJ4" s="54">
+        <v>54</v>
+      </c>
+      <c r="AK4" s="54">
+        <v>51</v>
+      </c>
+      <c r="AL4" s="54">
+        <v>51</v>
+      </c>
+      <c r="AM4" s="54">
+        <v>52</v>
+      </c>
       <c r="AN4" s="54"/>
       <c r="AO4" s="54"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>59</v>
       </c>
@@ -11517,21 +11608,43 @@
       <c r="AB5" s="54">
         <v>24</v>
       </c>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="54"/>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="54"/>
+      <c r="AC5" s="54">
+        <v>24</v>
+      </c>
+      <c r="AD5" s="54">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="54">
+        <v>24</v>
+      </c>
+      <c r="AF5" s="54">
+        <v>24</v>
+      </c>
+      <c r="AG5" s="15">
+        <v>24</v>
+      </c>
+      <c r="AH5" s="54">
+        <v>24</v>
+      </c>
+      <c r="AI5" s="54">
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="54">
+        <v>24</v>
+      </c>
+      <c r="AK5" s="54">
+        <v>24</v>
+      </c>
+      <c r="AL5" s="54">
+        <v>24</v>
+      </c>
+      <c r="AM5" s="54">
+        <v>24</v>
+      </c>
       <c r="AN5" s="54"/>
       <c r="AO5" s="54"/>
     </row>
-    <row r="6" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
         <v>19</v>
       </c>
@@ -11616,21 +11729,43 @@
       <c r="AB6" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
-      <c r="AG6" s="15"/>
-      <c r="AH6" s="15"/>
-      <c r="AI6" s="15"/>
-      <c r="AJ6" s="15"/>
-      <c r="AK6" s="15"/>
-      <c r="AL6" s="15"/>
-      <c r="AM6" s="15"/>
+      <c r="AC6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF6" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH6" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI6" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ6" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK6" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL6" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM6" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="AN6" s="15"/>
       <c r="AO6" s="15"/>
     </row>
-    <row r="7" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A7" s="61"/>
       <c r="B7" s="19" t="s">
         <v>21</v>
@@ -11713,21 +11848,43 @@
       <c r="AB7" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
-      <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="15"/>
-      <c r="AJ7" s="15"/>
-      <c r="AK7" s="15"/>
-      <c r="AL7" s="15"/>
-      <c r="AM7" s="15"/>
+      <c r="AC7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE7" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF7" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH7" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI7" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK7" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL7" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM7" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="AN7" s="15"/>
       <c r="AO7" s="15"/>
     </row>
-    <row r="8" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="61"/>
       <c r="B8" s="19" t="s">
         <v>22</v>
@@ -11810,21 +11967,43 @@
       <c r="AB8" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
-      <c r="AG8" s="15"/>
-      <c r="AH8" s="15"/>
-      <c r="AI8" s="15"/>
-      <c r="AJ8" s="15"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="15"/>
-      <c r="AM8" s="15"/>
+      <c r="AC8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD8" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE8" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF8" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG8" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH8" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK8" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL8" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM8" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="AN8" s="15"/>
       <c r="AO8" s="15"/>
     </row>
-    <row r="9" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="61"/>
       <c r="B9" s="19" t="s">
         <v>23</v>
@@ -11907,21 +12086,43 @@
       <c r="AB9" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15"/>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15"/>
-      <c r="AM9" s="15"/>
+      <c r="AC9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG9" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH9" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI9" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ9" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK9" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL9" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="AN9" s="15"/>
       <c r="AO9" s="15"/>
     </row>
-    <row r="10" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A10" s="61"/>
       <c r="B10" s="19" t="s">
         <v>24</v>
@@ -12004,21 +12205,43 @@
       <c r="AB10" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="15"/>
+      <c r="AC10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE10" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF10" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH10" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI10" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ10" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK10" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL10" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM10" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="AN10" s="15"/>
       <c r="AO10" s="15"/>
     </row>
-    <row r="11" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="61"/>
       <c r="B11" s="19" t="s">
         <v>25</v>
@@ -12101,21 +12324,43 @@
       <c r="AB11" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-      <c r="AE11" s="15"/>
-      <c r="AF11" s="15"/>
-      <c r="AG11" s="15"/>
-      <c r="AH11" s="15"/>
-      <c r="AI11" s="15"/>
-      <c r="AJ11" s="15"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="15"/>
-      <c r="AM11" s="15"/>
+      <c r="AC11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE11" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF11" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH11" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI11" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ11" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AK11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL11" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM11" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="AN11" s="15"/>
       <c r="AO11" s="15"/>
     </row>
-    <row r="12" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>83</v>
       </c>
@@ -12200,21 +12445,43 @@
       <c r="AB12" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
+      <c r="AC12" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>17</v>
+      </c>
+      <c r="AE12" s="16">
+        <v>17</v>
+      </c>
+      <c r="AF12" s="16">
+        <v>17</v>
+      </c>
+      <c r="AG12" s="16">
+        <v>17</v>
+      </c>
+      <c r="AH12" s="16">
+        <v>17</v>
+      </c>
+      <c r="AI12" s="16">
+        <v>17</v>
+      </c>
+      <c r="AJ12" s="16">
+        <v>17</v>
+      </c>
+      <c r="AK12" s="16">
+        <v>17</v>
+      </c>
+      <c r="AL12" s="16">
+        <v>17</v>
+      </c>
+      <c r="AM12" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="AN12" s="16"/>
       <c r="AO12" s="16"/>
     </row>
-    <row r="13" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>26</v>
       </c>
@@ -12299,21 +12566,43 @@
       <c r="AB13" s="53">
         <v>20.95</v>
       </c>
-      <c r="AC13" s="53"/>
-      <c r="AD13" s="53"/>
-      <c r="AE13" s="53"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="53"/>
-      <c r="AK13" s="53"/>
-      <c r="AL13" s="53"/>
-      <c r="AM13" s="53"/>
+      <c r="AC13" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD13" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE13" s="53">
+        <v>85.7</v>
+      </c>
+      <c r="AF13" s="53">
+        <v>102.9</v>
+      </c>
+      <c r="AG13" s="53">
+        <v>95.9</v>
+      </c>
+      <c r="AH13" s="53">
+        <v>103.08</v>
+      </c>
+      <c r="AI13" s="53">
+        <v>108.15</v>
+      </c>
+      <c r="AJ13" s="53">
+        <v>107.66</v>
+      </c>
+      <c r="AK13" s="53">
+        <v>103.35</v>
+      </c>
+      <c r="AL13" s="53">
+        <v>91.14</v>
+      </c>
+      <c r="AM13" s="53">
+        <v>96.2</v>
+      </c>
       <c r="AN13" s="53"/>
       <c r="AO13" s="53"/>
     </row>
-    <row r="14" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
         <v>27</v>
       </c>
@@ -12398,21 +12687,43 @@
       <c r="AB14" s="54">
         <v>65</v>
       </c>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AF14" s="54"/>
-      <c r="AG14" s="54"/>
-      <c r="AH14" s="54"/>
-      <c r="AI14" s="54"/>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="54"/>
-      <c r="AL14" s="54"/>
-      <c r="AM14" s="54"/>
+      <c r="AC14" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD14" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE14" s="54">
+        <v>70</v>
+      </c>
+      <c r="AF14" s="54">
+        <v>60</v>
+      </c>
+      <c r="AG14" s="54">
+        <v>60</v>
+      </c>
+      <c r="AH14" s="54">
+        <v>60</v>
+      </c>
+      <c r="AI14" s="54">
+        <v>40</v>
+      </c>
+      <c r="AJ14" s="54">
+        <v>85</v>
+      </c>
+      <c r="AK14" s="54">
+        <v>100</v>
+      </c>
+      <c r="AL14" s="54">
+        <v>105</v>
+      </c>
+      <c r="AM14" s="54">
+        <v>230</v>
+      </c>
       <c r="AN14" s="54"/>
       <c r="AO14" s="54"/>
     </row>
-    <row r="15" spans="1:41" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>28</v>
       </c>
@@ -12495,21 +12806,43 @@
       <c r="AB15" s="53">
         <v>35</v>
       </c>
-      <c r="AC15" s="53"/>
-      <c r="AD15" s="53"/>
-      <c r="AE15" s="53"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="53"/>
-      <c r="AK15" s="53"/>
-      <c r="AL15" s="53"/>
-      <c r="AM15" s="53"/>
+      <c r="AC15" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD15" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE15" s="53">
+        <v>95</v>
+      </c>
+      <c r="AF15" s="53">
+        <v>120</v>
+      </c>
+      <c r="AG15" s="53">
+        <v>110</v>
+      </c>
+      <c r="AH15" s="53">
+        <v>110</v>
+      </c>
+      <c r="AI15" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ15" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK15" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL15" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM15" s="53" t="s">
+        <v>253</v>
+      </c>
       <c r="AN15" s="53"/>
       <c r="AO15" s="53"/>
     </row>
-    <row r="16" spans="1:41" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -12592,21 +12925,43 @@
       <c r="AB16" s="53" t="s">
         <v>146</v>
       </c>
-      <c r="AC16" s="53"/>
-      <c r="AD16" s="53"/>
-      <c r="AE16" s="53"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="53"/>
-      <c r="AJ16" s="53"/>
-      <c r="AK16" s="53"/>
-      <c r="AL16" s="53"/>
-      <c r="AM16" s="53"/>
+      <c r="AC16" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD16" s="53">
+        <v>180</v>
+      </c>
+      <c r="AE16" s="53">
+        <v>180</v>
+      </c>
+      <c r="AF16" s="53">
+        <v>170</v>
+      </c>
+      <c r="AG16" s="53">
+        <v>170</v>
+      </c>
+      <c r="AH16" s="53">
+        <v>150</v>
+      </c>
+      <c r="AI16" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="AJ16" s="53">
+        <v>215</v>
+      </c>
+      <c r="AK16" s="53">
+        <v>215</v>
+      </c>
+      <c r="AL16" s="53" t="s">
+        <v>274</v>
+      </c>
+      <c r="AM16" s="53" t="s">
+        <v>146</v>
+      </c>
       <c r="AN16" s="53"/>
       <c r="AO16" s="53"/>
     </row>
-    <row r="17" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>30</v>
       </c>
@@ -12691,21 +13046,43 @@
       <c r="AB17" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="AC17" s="54"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="54"/>
-      <c r="AH17" s="54"/>
-      <c r="AI17" s="54"/>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
+      <c r="AC17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF17" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI17" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL17" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM17" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="AN17" s="54"/>
       <c r="AO17" s="54"/>
     </row>
-    <row r="18" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>31</v>
       </c>
@@ -12790,21 +13167,41 @@
       <c r="AB18" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AC18" s="54"/>
+      <c r="AC18" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AF18" s="54"/>
-      <c r="AG18" s="54"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="54"/>
-      <c r="AJ18" s="54"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="54"/>
-      <c r="AM18" s="54"/>
+      <c r="AE18" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF18" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG18" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH18" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI18" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ18" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK18" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL18" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM18" s="54" t="s">
+        <v>52</v>
+      </c>
       <c r="AN18" s="54"/>
       <c r="AO18" s="54"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="61" t="s">
         <v>32</v>
       </c>
@@ -12889,21 +13286,43 @@
       <c r="AB19" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="54"/>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
+      <c r="AC19" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD19" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE19" s="54">
+        <v>3.12</v>
+      </c>
+      <c r="AF19" s="54">
+        <v>3.16</v>
+      </c>
+      <c r="AG19" s="54">
+        <v>3.23</v>
+      </c>
+      <c r="AH19" s="54">
+        <v>3.18</v>
+      </c>
+      <c r="AI19" s="54">
+        <v>3.14</v>
+      </c>
+      <c r="AJ19" s="54">
+        <v>3.13</v>
+      </c>
+      <c r="AK19" s="54">
+        <v>3.11</v>
+      </c>
+      <c r="AL19" s="54">
+        <v>3.12</v>
+      </c>
+      <c r="AM19" s="54">
+        <v>3.2</v>
+      </c>
       <c r="AN19" s="54"/>
       <c r="AO19" s="54"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="61"/>
       <c r="B20" s="22" t="s">
         <v>21</v>
@@ -12986,21 +13405,43 @@
       <c r="AB20" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54"/>
-      <c r="AK20" s="54"/>
-      <c r="AL20" s="54"/>
-      <c r="AM20" s="54"/>
+      <c r="AC20" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD20" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE20" s="54">
+        <v>1.44</v>
+      </c>
+      <c r="AF20" s="54">
+        <v>1.6</v>
+      </c>
+      <c r="AG20" s="54">
+        <v>1.45</v>
+      </c>
+      <c r="AH20" s="54">
+        <v>1.62</v>
+      </c>
+      <c r="AI20" s="54">
+        <v>1.4</v>
+      </c>
+      <c r="AJ20" s="54">
+        <v>2.27</v>
+      </c>
+      <c r="AK20" s="54">
+        <v>2.58</v>
+      </c>
+      <c r="AL20" s="54">
+        <v>1.79</v>
+      </c>
+      <c r="AM20" s="54">
+        <v>1.63</v>
+      </c>
       <c r="AN20" s="54"/>
       <c r="AO20" s="54"/>
     </row>
-    <row r="21" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="61"/>
       <c r="B21" s="22" t="s">
         <v>22</v>
@@ -13083,21 +13524,43 @@
       <c r="AB21" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC21" s="54"/>
-      <c r="AD21" s="54"/>
-      <c r="AE21" s="54"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="54"/>
-      <c r="AJ21" s="54"/>
-      <c r="AK21" s="54"/>
-      <c r="AL21" s="54"/>
-      <c r="AM21" s="54"/>
+      <c r="AC21" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD21" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE21" s="54">
+        <v>1.22</v>
+      </c>
+      <c r="AF21" s="54">
+        <v>1.33</v>
+      </c>
+      <c r="AG21" s="54">
+        <v>1.25</v>
+      </c>
+      <c r="AH21" s="54">
+        <v>1.29</v>
+      </c>
+      <c r="AI21" s="54">
+        <v>1.28</v>
+      </c>
+      <c r="AJ21" s="54">
+        <v>1.41</v>
+      </c>
+      <c r="AK21" s="54">
+        <v>1.79</v>
+      </c>
+      <c r="AL21" s="54">
+        <v>2.11</v>
+      </c>
+      <c r="AM21" s="54">
+        <v>1.59</v>
+      </c>
       <c r="AN21" s="54"/>
       <c r="AO21" s="54"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="61"/>
       <c r="B22" s="22" t="s">
         <v>23</v>
@@ -13178,21 +13641,43 @@
       <c r="AB22" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC22" s="54"/>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
-      <c r="AF22" s="54"/>
-      <c r="AG22" s="54"/>
-      <c r="AH22" s="54"/>
-      <c r="AI22" s="54"/>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="54"/>
-      <c r="AL22" s="54"/>
-      <c r="AM22" s="54"/>
+      <c r="AC22" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD22" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE22" s="54">
+        <v>1.26</v>
+      </c>
+      <c r="AF22" s="54">
+        <v>1.29</v>
+      </c>
+      <c r="AG22" s="54">
+        <v>1.25</v>
+      </c>
+      <c r="AH22" s="54">
+        <v>1.44</v>
+      </c>
+      <c r="AI22" s="54">
+        <v>1.24</v>
+      </c>
+      <c r="AJ22" s="54">
+        <v>1.6</v>
+      </c>
+      <c r="AK22" s="54">
+        <v>1.53</v>
+      </c>
+      <c r="AL22" s="54">
+        <v>1.6</v>
+      </c>
+      <c r="AM22" s="54">
+        <v>1.24</v>
+      </c>
       <c r="AN22" s="54"/>
       <c r="AO22" s="54"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="61"/>
       <c r="B23" s="22" t="s">
         <v>24</v>
@@ -13273,21 +13758,43 @@
       <c r="AB23" s="54">
         <v>1.31</v>
       </c>
-      <c r="AC23" s="54"/>
-      <c r="AD23" s="54"/>
-      <c r="AE23" s="54"/>
-      <c r="AF23" s="54"/>
-      <c r="AG23" s="54"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="54"/>
-      <c r="AK23" s="54"/>
-      <c r="AL23" s="54"/>
-      <c r="AM23" s="54"/>
+      <c r="AC23" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD23" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE23" s="54">
+        <v>3.29</v>
+      </c>
+      <c r="AF23" s="54">
+        <v>3.11</v>
+      </c>
+      <c r="AG23" s="54">
+        <v>3.16</v>
+      </c>
+      <c r="AH23" s="54">
+        <v>3.17</v>
+      </c>
+      <c r="AI23" s="54">
+        <v>3.2</v>
+      </c>
+      <c r="AJ23" s="54">
+        <v>3.21</v>
+      </c>
+      <c r="AK23" s="54">
+        <v>3.15</v>
+      </c>
+      <c r="AL23" s="54">
+        <v>3.03</v>
+      </c>
+      <c r="AM23" s="54">
+        <v>3.28</v>
+      </c>
       <c r="AN23" s="54"/>
       <c r="AO23" s="54"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="61"/>
       <c r="B24" s="22" t="s">
         <v>25</v>
@@ -13370,21 +13877,43 @@
       <c r="AB24" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC24" s="54"/>
-      <c r="AD24" s="54"/>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="54"/>
-      <c r="AG24" s="54"/>
-      <c r="AH24" s="54"/>
-      <c r="AI24" s="54"/>
-      <c r="AJ24" s="54"/>
-      <c r="AK24" s="54"/>
-      <c r="AL24" s="54"/>
-      <c r="AM24" s="54"/>
+      <c r="AC24" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD24" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE24" s="54">
+        <v>1.33</v>
+      </c>
+      <c r="AF24" s="54">
+        <v>1.4</v>
+      </c>
+      <c r="AG24" s="54">
+        <v>1.33</v>
+      </c>
+      <c r="AH24" s="54">
+        <v>1.32</v>
+      </c>
+      <c r="AI24" s="54">
+        <v>1.96</v>
+      </c>
+      <c r="AJ24" s="54">
+        <v>2.14</v>
+      </c>
+      <c r="AK24" s="54">
+        <v>2.06</v>
+      </c>
+      <c r="AL24" s="54">
+        <v>2.1</v>
+      </c>
+      <c r="AM24" s="54">
+        <v>1.32</v>
+      </c>
       <c r="AN24" s="54"/>
       <c r="AO24" s="54"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="61" t="s">
         <v>33</v>
       </c>
@@ -13469,21 +13998,43 @@
       <c r="AB25" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="54"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="54"/>
-      <c r="AK25" s="54"/>
-      <c r="AL25" s="54"/>
-      <c r="AM25" s="54"/>
+      <c r="AC25" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD25" s="54">
+        <v>3.48</v>
+      </c>
+      <c r="AE25" s="54">
+        <v>3.45</v>
+      </c>
+      <c r="AF25" s="54">
+        <v>3.51</v>
+      </c>
+      <c r="AG25" s="54">
+        <v>3.44</v>
+      </c>
+      <c r="AH25" s="54">
+        <v>3.44</v>
+      </c>
+      <c r="AI25" s="54">
+        <v>3.46</v>
+      </c>
+      <c r="AJ25" s="54">
+        <v>3.45</v>
+      </c>
+      <c r="AK25" s="54">
+        <v>3.52</v>
+      </c>
+      <c r="AL25" s="54">
+        <v>3.52</v>
+      </c>
+      <c r="AM25" s="54" t="s">
+        <v>146</v>
+      </c>
       <c r="AN25" s="54"/>
       <c r="AO25" s="54"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="61"/>
       <c r="B26" s="22" t="s">
         <v>21</v>
@@ -13566,21 +14117,43 @@
       <c r="AB26" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC26" s="54"/>
-      <c r="AD26" s="54"/>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54"/>
-      <c r="AG26" s="54"/>
-      <c r="AH26" s="54"/>
-      <c r="AI26" s="54"/>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54"/>
-      <c r="AM26" s="54"/>
+      <c r="AC26" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD26" s="54">
+        <v>3.42</v>
+      </c>
+      <c r="AE26" s="54">
+        <v>3.49</v>
+      </c>
+      <c r="AF26" s="54">
+        <v>3.48</v>
+      </c>
+      <c r="AG26" s="54">
+        <v>3.52</v>
+      </c>
+      <c r="AH26" s="54">
+        <v>3.51</v>
+      </c>
+      <c r="AI26" s="54">
+        <v>3.41</v>
+      </c>
+      <c r="AJ26" s="54">
+        <v>3.44</v>
+      </c>
+      <c r="AK26" s="54">
+        <v>3.39</v>
+      </c>
+      <c r="AL26" s="54">
+        <v>3.57</v>
+      </c>
+      <c r="AM26" s="54" t="s">
+        <v>146</v>
+      </c>
       <c r="AN26" s="54"/>
       <c r="AO26" s="54"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="61"/>
       <c r="B27" s="22" t="s">
         <v>22</v>
@@ -13663,21 +14236,43 @@
       <c r="AB27" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC27" s="54"/>
-      <c r="AD27" s="54"/>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54"/>
-      <c r="AG27" s="54"/>
-      <c r="AH27" s="54"/>
-      <c r="AI27" s="54"/>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="54"/>
-      <c r="AL27" s="54"/>
-      <c r="AM27" s="54"/>
+      <c r="AC27" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD27" s="54">
+        <v>3.46</v>
+      </c>
+      <c r="AE27" s="54">
+        <v>3.53</v>
+      </c>
+      <c r="AF27" s="54">
+        <v>3.52</v>
+      </c>
+      <c r="AG27" s="54">
+        <v>3.49</v>
+      </c>
+      <c r="AH27" s="54">
+        <v>3.34</v>
+      </c>
+      <c r="AI27" s="54">
+        <v>3.58</v>
+      </c>
+      <c r="AJ27" s="54">
+        <v>3.46</v>
+      </c>
+      <c r="AK27" s="54">
+        <v>3.47</v>
+      </c>
+      <c r="AL27" s="54">
+        <v>3.37</v>
+      </c>
+      <c r="AM27" s="54" t="s">
+        <v>146</v>
+      </c>
       <c r="AN27" s="54"/>
       <c r="AO27" s="54"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="61"/>
       <c r="B28" s="22" t="s">
         <v>23</v>
@@ -13760,21 +14355,43 @@
       <c r="AB28" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="54"/>
-      <c r="AJ28" s="54"/>
-      <c r="AK28" s="54"/>
-      <c r="AL28" s="54"/>
-      <c r="AM28" s="54"/>
+      <c r="AC28" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD28" s="54">
+        <v>3.5</v>
+      </c>
+      <c r="AE28" s="54">
+        <v>3.43</v>
+      </c>
+      <c r="AF28" s="54">
+        <v>3.44</v>
+      </c>
+      <c r="AG28" s="54">
+        <v>3.56</v>
+      </c>
+      <c r="AH28" s="54">
+        <v>3.53</v>
+      </c>
+      <c r="AI28" s="54">
+        <v>3.51</v>
+      </c>
+      <c r="AJ28" s="54">
+        <v>3.49</v>
+      </c>
+      <c r="AK28" s="54">
+        <v>3.48</v>
+      </c>
+      <c r="AL28" s="54">
+        <v>3.45</v>
+      </c>
+      <c r="AM28" s="54" t="s">
+        <v>146</v>
+      </c>
       <c r="AN28" s="54"/>
       <c r="AO28" s="54"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
       <c r="B29" s="22" t="s">
         <v>24</v>
@@ -13855,21 +14472,43 @@
       <c r="AB29" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC29" s="54"/>
-      <c r="AD29" s="54"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="54"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="54"/>
-      <c r="AI29" s="54"/>
-      <c r="AJ29" s="54"/>
-      <c r="AK29" s="54"/>
-      <c r="AL29" s="54"/>
-      <c r="AM29" s="54"/>
+      <c r="AC29" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD29" s="54">
+        <v>3.54</v>
+      </c>
+      <c r="AE29" s="54">
+        <v>3.42</v>
+      </c>
+      <c r="AF29" s="54">
+        <v>3.46</v>
+      </c>
+      <c r="AG29" s="54">
+        <v>3.5</v>
+      </c>
+      <c r="AH29" s="54">
+        <v>3.47</v>
+      </c>
+      <c r="AI29" s="54">
+        <v>3.45</v>
+      </c>
+      <c r="AJ29" s="54">
+        <v>3.43</v>
+      </c>
+      <c r="AK29" s="54">
+        <v>3.4</v>
+      </c>
+      <c r="AL29" s="54">
+        <v>3.63</v>
+      </c>
+      <c r="AM29" s="54" t="s">
+        <v>146</v>
+      </c>
       <c r="AN29" s="54"/>
       <c r="AO29" s="54"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="61"/>
       <c r="B30" s="22" t="s">
         <v>25</v>
@@ -13952,21 +14591,43 @@
       <c r="AB30" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="54"/>
-      <c r="AG30" s="54"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="54"/>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54"/>
-      <c r="AM30" s="54"/>
+      <c r="AC30" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD30" s="54">
+        <v>3.38</v>
+      </c>
+      <c r="AE30" s="54">
+        <v>3.56</v>
+      </c>
+      <c r="AF30" s="54">
+        <v>3.64</v>
+      </c>
+      <c r="AG30" s="54">
+        <v>3.58</v>
+      </c>
+      <c r="AH30" s="54">
+        <v>3.47</v>
+      </c>
+      <c r="AI30" s="54">
+        <v>3.44</v>
+      </c>
+      <c r="AJ30" s="54">
+        <v>3.48</v>
+      </c>
+      <c r="AK30" s="54">
+        <v>3.54</v>
+      </c>
+      <c r="AL30" s="54">
+        <v>3.45</v>
+      </c>
+      <c r="AM30" s="54" t="s">
+        <v>146</v>
+      </c>
       <c r="AN30" s="54"/>
       <c r="AO30" s="54"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="61" t="s">
         <v>34</v>
       </c>
@@ -14038,14 +14699,22 @@
       <c r="AG31" s="53"/>
       <c r="AH31" s="53"/>
       <c r="AI31" s="53"/>
-      <c r="AJ31" s="53"/>
-      <c r="AK31" s="53"/>
-      <c r="AL31" s="53"/>
-      <c r="AM31" s="53"/>
+      <c r="AJ31" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK31" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL31" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM31" s="53">
+        <v>9.2899999999999991</v>
+      </c>
       <c r="AN31" s="53"/>
       <c r="AO31" s="53"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="61"/>
       <c r="B32" s="23" t="s">
         <v>21</v>
@@ -14115,14 +14784,22 @@
       <c r="AG32" s="53"/>
       <c r="AH32" s="53"/>
       <c r="AI32" s="53"/>
-      <c r="AJ32" s="53"/>
-      <c r="AK32" s="53"/>
-      <c r="AL32" s="53"/>
-      <c r="AM32" s="53"/>
+      <c r="AJ32" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK32" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL32" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM32" s="53">
+        <v>9.0299999999999994</v>
+      </c>
       <c r="AN32" s="53"/>
       <c r="AO32" s="53"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="61"/>
       <c r="B33" s="23" t="s">
         <v>22</v>
@@ -14192,14 +14869,22 @@
       <c r="AG33" s="53"/>
       <c r="AH33" s="53"/>
       <c r="AI33" s="53"/>
-      <c r="AJ33" s="53"/>
-      <c r="AK33" s="53"/>
-      <c r="AL33" s="53"/>
-      <c r="AM33" s="53"/>
+      <c r="AJ33" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK33" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL33" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM33" s="53">
+        <v>10.43</v>
+      </c>
       <c r="AN33" s="53"/>
       <c r="AO33" s="53"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="23" t="s">
         <v>23</v>
@@ -14269,14 +14954,22 @@
       <c r="AG34" s="53"/>
       <c r="AH34" s="53"/>
       <c r="AI34" s="53"/>
-      <c r="AJ34" s="53"/>
-      <c r="AK34" s="53"/>
-      <c r="AL34" s="53"/>
-      <c r="AM34" s="53"/>
+      <c r="AJ34" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK34" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL34" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM34" s="53">
+        <v>9.82</v>
+      </c>
       <c r="AN34" s="53"/>
       <c r="AO34" s="53"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
       <c r="B35" s="23" t="s">
         <v>24</v>
@@ -14346,14 +15039,22 @@
       <c r="AG35" s="53"/>
       <c r="AH35" s="53"/>
       <c r="AI35" s="53"/>
-      <c r="AJ35" s="53"/>
-      <c r="AK35" s="53"/>
-      <c r="AL35" s="53"/>
-      <c r="AM35" s="53"/>
+      <c r="AJ35" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK35" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL35" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM35" s="53">
+        <v>9.8800000000000008</v>
+      </c>
       <c r="AN35" s="53"/>
       <c r="AO35" s="53"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="61"/>
       <c r="B36" s="23" t="s">
         <v>25</v>
@@ -14423,14 +15124,22 @@
       <c r="AG36" s="53"/>
       <c r="AH36" s="53"/>
       <c r="AI36" s="53"/>
-      <c r="AJ36" s="53"/>
-      <c r="AK36" s="53"/>
-      <c r="AL36" s="53"/>
-      <c r="AM36" s="53"/>
+      <c r="AJ36" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK36" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL36" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM36" s="53">
+        <v>8.23</v>
+      </c>
       <c r="AN36" s="53"/>
       <c r="AO36" s="53"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" s="61" t="s">
         <v>35</v>
       </c>
@@ -14493,21 +15202,31 @@
       <c r="Z37" s="53"/>
       <c r="AA37" s="53"/>
       <c r="AB37" s="53"/>
-      <c r="AC37" s="53"/>
+      <c r="AC37" s="53" t="s">
+        <v>276</v>
+      </c>
       <c r="AD37" s="53"/>
       <c r="AE37" s="53"/>
       <c r="AF37" s="53"/>
       <c r="AG37" s="53"/>
       <c r="AH37" s="53"/>
       <c r="AI37" s="53"/>
-      <c r="AJ37" s="53"/>
-      <c r="AK37" s="53"/>
-      <c r="AL37" s="53"/>
-      <c r="AM37" s="53"/>
+      <c r="AJ37" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK37" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL37" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM37" s="53" t="s">
+        <v>146</v>
+      </c>
       <c r="AN37" s="53"/>
       <c r="AO37" s="53"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" s="61"/>
       <c r="B38" s="23" t="s">
         <v>21</v>
@@ -14568,21 +15287,31 @@
       <c r="Z38" s="53"/>
       <c r="AA38" s="53"/>
       <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
+      <c r="AC38" s="53" t="s">
+        <v>280</v>
+      </c>
       <c r="AD38" s="53"/>
       <c r="AE38" s="53"/>
       <c r="AF38" s="53"/>
       <c r="AG38" s="53"/>
       <c r="AH38" s="53"/>
       <c r="AI38" s="53"/>
-      <c r="AJ38" s="53"/>
-      <c r="AK38" s="53"/>
-      <c r="AL38" s="53"/>
-      <c r="AM38" s="53"/>
+      <c r="AJ38" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK38" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL38" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM38" s="53" t="s">
+        <v>146</v>
+      </c>
       <c r="AN38" s="53"/>
       <c r="AO38" s="53"/>
     </row>
-    <row r="39" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" s="61"/>
       <c r="B39" s="23" t="s">
         <v>22</v>
@@ -14643,21 +15372,31 @@
       <c r="Z39" s="53"/>
       <c r="AA39" s="53"/>
       <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
+      <c r="AC39" s="53" t="s">
+        <v>281</v>
+      </c>
       <c r="AD39" s="53"/>
       <c r="AE39" s="53"/>
       <c r="AF39" s="53"/>
       <c r="AG39" s="53"/>
       <c r="AH39" s="53"/>
       <c r="AI39" s="53"/>
-      <c r="AJ39" s="53"/>
-      <c r="AK39" s="53"/>
-      <c r="AL39" s="53"/>
-      <c r="AM39" s="53"/>
+      <c r="AJ39" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK39" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL39" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM39" s="53" t="s">
+        <v>146</v>
+      </c>
       <c r="AN39" s="53"/>
       <c r="AO39" s="53"/>
     </row>
-    <row r="40" spans="1:41" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" s="61"/>
       <c r="B40" s="23" t="s">
         <v>23</v>
@@ -14718,21 +15457,31 @@
       <c r="Z40" s="53"/>
       <c r="AA40" s="53"/>
       <c r="AB40" s="53"/>
-      <c r="AC40" s="53"/>
+      <c r="AC40" s="53" t="s">
+        <v>277</v>
+      </c>
       <c r="AD40" s="53"/>
       <c r="AE40" s="53"/>
       <c r="AF40" s="53"/>
       <c r="AG40" s="53"/>
       <c r="AH40" s="53"/>
       <c r="AI40" s="53"/>
-      <c r="AJ40" s="53"/>
-      <c r="AK40" s="53"/>
-      <c r="AL40" s="53"/>
-      <c r="AM40" s="53"/>
+      <c r="AJ40" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK40" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL40" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM40" s="53" t="s">
+        <v>146</v>
+      </c>
       <c r="AN40" s="53"/>
       <c r="AO40" s="53"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="61"/>
       <c r="B41" s="23" t="s">
         <v>24</v>
@@ -14793,21 +15542,31 @@
       <c r="Z41" s="53"/>
       <c r="AA41" s="53"/>
       <c r="AB41" s="53"/>
-      <c r="AC41" s="53"/>
+      <c r="AC41" s="53" t="s">
+        <v>278</v>
+      </c>
       <c r="AD41" s="53"/>
       <c r="AE41" s="53"/>
       <c r="AF41" s="53"/>
       <c r="AG41" s="53"/>
       <c r="AH41" s="53"/>
       <c r="AI41" s="53"/>
-      <c r="AJ41" s="53"/>
-      <c r="AK41" s="53"/>
-      <c r="AL41" s="53"/>
-      <c r="AM41" s="53"/>
+      <c r="AJ41" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK41" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL41" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM41" s="53" t="s">
+        <v>146</v>
+      </c>
       <c r="AN41" s="53"/>
       <c r="AO41" s="53"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="61"/>
       <c r="B42" s="23" t="s">
         <v>25</v>
@@ -14868,21 +15627,31 @@
       <c r="Z42" s="53"/>
       <c r="AA42" s="53"/>
       <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
+      <c r="AC42" s="53" t="s">
+        <v>279</v>
+      </c>
       <c r="AD42" s="53"/>
       <c r="AE42" s="53"/>
       <c r="AF42" s="53"/>
       <c r="AG42" s="53"/>
       <c r="AH42" s="53"/>
       <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="53"/>
-      <c r="AL42" s="53"/>
-      <c r="AM42" s="53"/>
+      <c r="AJ42" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK42" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL42" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM42" s="53" t="s">
+        <v>146</v>
+      </c>
       <c r="AN42" s="53"/>
       <c r="AO42" s="53"/>
     </row>
-    <row r="43" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" s="26" t="s">
         <v>36</v>
       </c>
@@ -14966,20 +15735,40 @@
       </c>
       <c r="AB43" s="53"/>
       <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="53"/>
-      <c r="AF43" s="53"/>
-      <c r="AG43" s="53"/>
-      <c r="AH43" s="53"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="53"/>
-      <c r="AK43" s="53"/>
-      <c r="AL43" s="53"/>
-      <c r="AM43" s="53"/>
+      <c r="AD43" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE43" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF43" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG43" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH43" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI43" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ43" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK43" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL43" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM43" s="53" t="s">
+        <v>64</v>
+      </c>
       <c r="AN43" s="53"/>
       <c r="AO43" s="53"/>
     </row>
-    <row r="44" spans="1:41" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
         <v>37</v>
       </c>
@@ -15053,20 +15842,40 @@
       </c>
       <c r="AB44" s="55"/>
       <c r="AC44" s="55"/>
-      <c r="AD44" s="55"/>
-      <c r="AE44" s="55"/>
-      <c r="AF44" s="55"/>
-      <c r="AG44" s="55"/>
-      <c r="AH44" s="55"/>
-      <c r="AI44" s="55"/>
-      <c r="AJ44" s="55"/>
-      <c r="AK44" s="55"/>
-      <c r="AL44" s="55"/>
-      <c r="AM44" s="55"/>
+      <c r="AD44" s="55">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="AE44" s="55">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="AF44" s="55">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="AG44" s="55">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="AH44" s="55">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="AI44" s="55">
+        <v>0.625</v>
+      </c>
+      <c r="AJ44" s="55">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="AK44" s="55">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="AL44" s="55">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="AM44" s="55" t="s">
+        <v>146</v>
+      </c>
       <c r="AN44" s="55"/>
       <c r="AO44" s="55"/>
     </row>
-    <row r="45" spans="1:41" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41" ht="76" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
         <v>172</v>
       </c>
@@ -15111,8 +15920,10 @@
       <c r="Z45" s="53"/>
       <c r="AA45" s="53"/>
       <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
+      <c r="AC45" s="57"/>
+      <c r="AD45" s="57" t="s">
+        <v>271</v>
+      </c>
       <c r="AE45" s="57"/>
       <c r="AF45" s="53"/>
       <c r="AG45" s="53"/>
@@ -15125,7 +15936,7 @@
       <c r="AN45" s="53"/>
       <c r="AO45" s="53"/>
     </row>
-    <row r="46" spans="1:41" ht="210" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41" ht="192" x14ac:dyDescent="0.2">
       <c r="A46" s="29" t="s">
         <v>39</v>
       </c>
@@ -15163,7 +15974,9 @@
       <c r="AA46" s="53"/>
       <c r="AB46" s="53"/>
       <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
+      <c r="AD46" s="57" t="s">
+        <v>272</v>
+      </c>
       <c r="AE46" s="53"/>
       <c r="AF46" s="53"/>
       <c r="AG46" s="53"/>
@@ -15171,12 +15984,14 @@
       <c r="AI46" s="53"/>
       <c r="AJ46" s="53"/>
       <c r="AK46" s="53"/>
-      <c r="AL46" s="53"/>
+      <c r="AL46" s="57" t="s">
+        <v>275</v>
+      </c>
       <c r="AM46" s="53"/>
       <c r="AN46" s="53"/>
       <c r="AO46" s="53"/>
     </row>
-    <row r="47" spans="1:41" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:41" ht="212" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="31" t="s">
         <v>40</v>
       </c>
@@ -15233,7 +16048,7 @@
       <c r="AN47" s="53"/>
       <c r="AO47" s="53"/>
     </row>
-    <row r="1048576" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C1048576" s="15"/>
       <c r="O1048576" s="15"/>
     </row>

--- a/Experiment Log_env tracking.xlsx
+++ b/Experiment Log_env tracking.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D0A67B-6ADA-BE4D-9163-D69492D9B02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E67ED9-B004-804F-9311-202273D3A18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beta test 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="285">
   <si>
     <t xml:space="preserve">EXPERIMENT </t>
   </si>
@@ -870,6 +870,15 @@
   </si>
   <si>
     <t>19 (male) - 9.97</t>
+  </si>
+  <si>
+    <t>45 (male) - 8.41</t>
+  </si>
+  <si>
+    <t>43 (male) - 9.05</t>
+  </si>
+  <si>
+    <t>101 (female) - 6.9</t>
   </si>
 </sst>
 </file>
@@ -6753,9 +6762,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AO47"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <selection pane="topRight" activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10075,7 +10084,7 @@
       <c r="AN31" s="53"/>
       <c r="AO31" s="53"/>
     </row>
-    <row r="32" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="61"/>
       <c r="B32" s="23" t="s">
         <v>21</v>
@@ -10090,7 +10099,9 @@
       <c r="J32" s="15"/>
       <c r="K32" s="15"/>
       <c r="L32" s="15"/>
-      <c r="M32" s="16"/>
+      <c r="M32" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="N32" s="16"/>
       <c r="O32" s="16"/>
       <c r="P32" s="16"/>
@@ -10175,7 +10186,7 @@
       <c r="AN33" s="53"/>
       <c r="AO33" s="53"/>
     </row>
-    <row r="34" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" s="61"/>
       <c r="B34" s="23" t="s">
         <v>23</v>
@@ -10190,7 +10201,9 @@
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
       <c r="L34" s="15"/>
-      <c r="M34" s="16"/>
+      <c r="M34" s="25" t="s">
+        <v>282</v>
+      </c>
       <c r="N34" s="16"/>
       <c r="O34" s="16"/>
       <c r="P34" s="16"/>
@@ -10239,7 +10252,9 @@
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="16"/>
+      <c r="M35" s="17" t="s">
+        <v>283</v>
+      </c>
       <c r="N35" s="16"/>
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
@@ -10288,7 +10303,9 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
       <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
+      <c r="M36" s="17" t="s">
+        <v>284</v>
+      </c>
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16"/>
@@ -11066,7 +11083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AO1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="R46" sqref="R46"/>
